--- a/tests/program.xlsx
+++ b/tests/program.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Háromszög" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="17">
   <si>
     <t>a</t>
   </si>
@@ -517,21 +517,21 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,22 +542,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>10</v>
       </c>
@@ -568,32 +565,42 @@
         <v>6</v>
       </c>
       <c r="D2" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1">
         <v>22</v>
       </c>
       <c r="F2" s="1">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1">
         <v>16</v>
       </c>
-      <c r="H2" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>20</v>
+      </c>
+      <c r="B3" s="1">
+        <v>30</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -601,9 +608,8 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -611,7 +617,6 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -622,7 +627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>

--- a/tests/program.xlsx
+++ b/tests/program.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ginalzsolt\Desktop\IKTproj-terfogatok\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\2-14-SZFT\IKT II\IKTproj-terfogatok\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="Háromszög" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="19">
   <si>
     <t>a</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>Userdocs tesztjei</t>
+  </si>
+  <si>
+    <t>asdf</t>
   </si>
 </sst>
 </file>
@@ -121,9 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -404,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,8 +519,106 @@
         <v>8</v>
       </c>
     </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>17</v>
+      </c>
+      <c r="D8" s="1">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1">
+        <v>87.75</v>
+      </c>
+      <c r="G8" s="1">
+        <v>87.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -519,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
